--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2352976666666667</v>
+        <v>0.2321703333333333</v>
       </c>
       <c r="H2">
-        <v>0.705893</v>
+        <v>0.696511</v>
       </c>
       <c r="I2">
-        <v>0.1675814216619712</v>
+        <v>0.1385033128912433</v>
       </c>
       <c r="J2">
-        <v>0.1675814216619712</v>
+        <v>0.1385033128912433</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N2">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O2">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P2">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q2">
-        <v>5.113443479550333</v>
+        <v>4.511050151748778</v>
       </c>
       <c r="R2">
-        <v>46.020991315953</v>
+        <v>40.599451365739</v>
       </c>
       <c r="S2">
-        <v>0.01449045193579806</v>
+        <v>0.012013088382278</v>
       </c>
       <c r="T2">
-        <v>0.01449045193579806</v>
+        <v>0.012013088382278</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2352976666666667</v>
+        <v>0.2321703333333333</v>
       </c>
       <c r="H3">
-        <v>0.705893</v>
+        <v>0.696511</v>
       </c>
       <c r="I3">
-        <v>0.1675814216619712</v>
+        <v>0.1385033128912433</v>
       </c>
       <c r="J3">
-        <v>0.1675814216619712</v>
+        <v>0.1385033128912433</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.576131</v>
       </c>
       <c r="O3">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P3">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q3">
-        <v>2.162866426664777</v>
+        <v>2.134119842104556</v>
       </c>
       <c r="R3">
-        <v>19.465797839983</v>
+        <v>19.207078578941</v>
       </c>
       <c r="S3">
-        <v>0.006129120645309906</v>
+        <v>0.005683237698352006</v>
       </c>
       <c r="T3">
-        <v>0.006129120645309906</v>
+        <v>0.005683237698352005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2352976666666667</v>
+        <v>0.2321703333333333</v>
       </c>
       <c r="H4">
-        <v>0.705893</v>
+        <v>0.696511</v>
       </c>
       <c r="I4">
-        <v>0.1675814216619712</v>
+        <v>0.1385033128912433</v>
       </c>
       <c r="J4">
-        <v>0.1675814216619712</v>
+        <v>0.1385033128912433</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N4">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O4">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P4">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q4">
-        <v>26.90797950296133</v>
+        <v>24.387709287655</v>
       </c>
       <c r="R4">
-        <v>242.171815526652</v>
+        <v>219.489383588895</v>
       </c>
       <c r="S4">
-        <v>0.07625170498831611</v>
+        <v>0.06494534471099296</v>
       </c>
       <c r="T4">
-        <v>0.0762517049883161</v>
+        <v>0.06494534471099295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2352976666666667</v>
+        <v>0.2321703333333333</v>
       </c>
       <c r="H5">
-        <v>0.705893</v>
+        <v>0.696511</v>
       </c>
       <c r="I5">
-        <v>0.1675814216619712</v>
+        <v>0.1385033128912433</v>
       </c>
       <c r="J5">
-        <v>0.1675814216619712</v>
+        <v>0.1385033128912433</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N5">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O5">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P5">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q5">
-        <v>0.5227605907356666</v>
+        <v>0.6579998233484446</v>
       </c>
       <c r="R5">
-        <v>4.704845316620999</v>
+        <v>5.921998410136001</v>
       </c>
       <c r="S5">
-        <v>0.001481396488350491</v>
+        <v>0.001752277134481387</v>
       </c>
       <c r="T5">
-        <v>0.001481396488350491</v>
+        <v>0.001752277134481387</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2352976666666667</v>
+        <v>0.2321703333333333</v>
       </c>
       <c r="H6">
-        <v>0.705893</v>
+        <v>0.696511</v>
       </c>
       <c r="I6">
-        <v>0.1675814216619712</v>
+        <v>0.1385033128912433</v>
       </c>
       <c r="J6">
-        <v>0.1675814216619712</v>
+        <v>0.1385033128912433</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N6">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O6">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P6">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q6">
-        <v>24.42969271093467</v>
+        <v>20.318676702413</v>
       </c>
       <c r="R6">
-        <v>219.867234398412</v>
+        <v>182.868090321717</v>
       </c>
       <c r="S6">
-        <v>0.06922874760419664</v>
+        <v>0.05410936496513898</v>
       </c>
       <c r="T6">
-        <v>0.06922874760419664</v>
+        <v>0.05410936496513898</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.104649</v>
       </c>
       <c r="I7">
-        <v>0.2622474650654913</v>
+        <v>0.2196627850557981</v>
       </c>
       <c r="J7">
-        <v>0.2622474650654913</v>
+        <v>0.2196627850557982</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N7">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O7">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P7">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q7">
-        <v>8.002006290247666</v>
+        <v>7.154412549233444</v>
       </c>
       <c r="R7">
-        <v>72.01805661222899</v>
+        <v>64.389712943101</v>
       </c>
       <c r="S7">
-        <v>0.02267604756022144</v>
+        <v>0.01905245727403445</v>
       </c>
       <c r="T7">
-        <v>0.02267604756022144</v>
+        <v>0.01905245727403445</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.104649</v>
       </c>
       <c r="I8">
-        <v>0.2622474650654913</v>
+        <v>0.2196627850557981</v>
       </c>
       <c r="J8">
-        <v>0.2622474650654913</v>
+        <v>0.2196627850557982</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.576131</v>
       </c>
       <c r="O8">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P8">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q8">
         <v>3.384660614779889</v>
@@ -948,10 +948,10 @@
         <v>30.461945533019</v>
       </c>
       <c r="S8">
-        <v>0.009591435234123221</v>
+        <v>0.009013472637541754</v>
       </c>
       <c r="T8">
-        <v>0.009591435234123221</v>
+        <v>0.009013472637541754</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.104649</v>
       </c>
       <c r="I9">
-        <v>0.2622474650654913</v>
+        <v>0.2196627850557981</v>
       </c>
       <c r="J9">
-        <v>0.2622474650654913</v>
+        <v>0.2196627850557982</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N9">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O9">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P9">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q9">
-        <v>42.10818445567066</v>
+        <v>38.678296074145</v>
       </c>
       <c r="R9">
-        <v>378.9736601010359</v>
+        <v>348.104664667305</v>
       </c>
       <c r="S9">
-        <v>0.1193259738567154</v>
+        <v>0.1030016899799912</v>
       </c>
       <c r="T9">
-        <v>0.1193259738567154</v>
+        <v>0.1030016899799912</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.104649</v>
       </c>
       <c r="I10">
-        <v>0.2622474650654913</v>
+        <v>0.2196627850557981</v>
       </c>
       <c r="J10">
-        <v>0.2622474650654913</v>
+        <v>0.2196627850557982</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N10">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O10">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P10">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q10">
-        <v>0.8180658595503332</v>
+        <v>1.043571238447111</v>
       </c>
       <c r="R10">
-        <v>7.362592735952999</v>
+        <v>9.392141146024002</v>
       </c>
       <c r="S10">
-        <v>0.002318231161748143</v>
+        <v>0.002779067644771913</v>
       </c>
       <c r="T10">
-        <v>0.002318231161748143</v>
+        <v>0.002779067644771912</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.104649</v>
       </c>
       <c r="I11">
-        <v>0.2622474650654913</v>
+        <v>0.2196627850557981</v>
       </c>
       <c r="J11">
-        <v>0.2622474650654913</v>
+        <v>0.2196627850557982</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N11">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O11">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P11">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q11">
-        <v>38.22992383185733</v>
+        <v>32.224912313867</v>
       </c>
       <c r="R11">
-        <v>344.069314486716</v>
+        <v>290.024210824803</v>
       </c>
       <c r="S11">
-        <v>0.1083357772526831</v>
+        <v>0.08581609751945886</v>
       </c>
       <c r="T11">
-        <v>0.1083357772526831</v>
+        <v>0.08581609751945886</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1510163333333333</v>
+        <v>0.2216903333333333</v>
       </c>
       <c r="H12">
-        <v>0.453049</v>
+        <v>0.665071</v>
       </c>
       <c r="I12">
-        <v>0.107555388001488</v>
+        <v>0.1322513740743392</v>
       </c>
       <c r="J12">
-        <v>0.107555388001488</v>
+        <v>0.1322513740743392</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N12">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O12">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P12">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q12">
-        <v>3.281857809847667</v>
+        <v>4.307424628575444</v>
       </c>
       <c r="R12">
-        <v>29.536720288629</v>
+        <v>38.766821657179</v>
       </c>
       <c r="S12">
-        <v>0.009300113131963878</v>
+        <v>0.01147082630926146</v>
       </c>
       <c r="T12">
-        <v>0.009300113131963876</v>
+        <v>0.01147082630926146</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1510163333333333</v>
+        <v>0.2216903333333333</v>
       </c>
       <c r="H13">
-        <v>0.453049</v>
+        <v>0.665071</v>
       </c>
       <c r="I13">
-        <v>0.107555388001488</v>
+        <v>0.1322513740743392</v>
       </c>
       <c r="J13">
-        <v>0.107555388001488</v>
+        <v>0.1322513740743392</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.576131</v>
       </c>
       <c r="O13">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P13">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q13">
-        <v>1.388148730379889</v>
+        <v>2.037787224477889</v>
       </c>
       <c r="R13">
-        <v>12.493338573419</v>
+        <v>18.340085020301</v>
       </c>
       <c r="S13">
-        <v>0.0039337293035021</v>
+        <v>0.005426700481802393</v>
       </c>
       <c r="T13">
-        <v>0.0039337293035021</v>
+        <v>0.005426700481802392</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1510163333333333</v>
+        <v>0.2216903333333333</v>
       </c>
       <c r="H14">
-        <v>0.453049</v>
+        <v>0.665071</v>
       </c>
       <c r="I14">
-        <v>0.107555388001488</v>
+        <v>0.1322513740743392</v>
       </c>
       <c r="J14">
-        <v>0.107555388001488</v>
+        <v>0.1322513740743392</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N14">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O14">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P14">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q14">
-        <v>17.26980322207067</v>
+        <v>23.286865826455</v>
       </c>
       <c r="R14">
-        <v>155.428228998636</v>
+        <v>209.581792438095</v>
       </c>
       <c r="S14">
-        <v>0.04893908665088283</v>
+        <v>0.06201375908246215</v>
       </c>
       <c r="T14">
-        <v>0.04893908665088281</v>
+        <v>0.06201375908246214</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1510163333333333</v>
+        <v>0.2216903333333333</v>
       </c>
       <c r="H15">
-        <v>0.453049</v>
+        <v>0.665071</v>
       </c>
       <c r="I15">
-        <v>0.107555388001488</v>
+        <v>0.1322513740743392</v>
       </c>
       <c r="J15">
-        <v>0.107555388001488</v>
+        <v>0.1322513740743392</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N15">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O15">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P15">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q15">
-        <v>0.3355128367503333</v>
+        <v>0.6282981898551112</v>
       </c>
       <c r="R15">
-        <v>3.019615530753</v>
+        <v>5.654683708696001</v>
       </c>
       <c r="S15">
-        <v>0.0009507746891535992</v>
+        <v>0.001673180618980419</v>
       </c>
       <c r="T15">
-        <v>0.0009507746891535991</v>
+        <v>0.001673180618980418</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1510163333333333</v>
+        <v>0.2216903333333333</v>
       </c>
       <c r="H16">
-        <v>0.453049</v>
+        <v>0.665071</v>
       </c>
       <c r="I16">
-        <v>0.107555388001488</v>
+        <v>0.1322513740743392</v>
       </c>
       <c r="J16">
-        <v>0.107555388001488</v>
+        <v>0.1322513740743392</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N16">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O16">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P16">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q16">
-        <v>15.67921463025733</v>
+        <v>19.401506412893</v>
       </c>
       <c r="R16">
-        <v>141.112931672316</v>
+        <v>174.613557716037</v>
       </c>
       <c r="S16">
-        <v>0.04443168422598565</v>
+        <v>0.0516669075818328</v>
       </c>
       <c r="T16">
-        <v>0.04443168422598565</v>
+        <v>0.0516669075818328</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.43165</v>
+        <v>0.555329</v>
       </c>
       <c r="H17">
-        <v>1.29495</v>
+        <v>1.665987</v>
       </c>
       <c r="I17">
-        <v>0.307425575804222</v>
+        <v>0.3312865392416541</v>
       </c>
       <c r="J17">
-        <v>0.3074255758042219</v>
+        <v>0.3312865392416541</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N17">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O17">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P17">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q17">
-        <v>9.380534491550002</v>
+        <v>10.78999600747367</v>
       </c>
       <c r="R17">
-        <v>84.42481042394999</v>
+        <v>97.10996406726299</v>
       </c>
       <c r="S17">
-        <v>0.02658251425394742</v>
+        <v>0.02873414644524806</v>
       </c>
       <c r="T17">
-        <v>0.02658251425394742</v>
+        <v>0.02873414644524806</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.43165</v>
+        <v>0.555329</v>
       </c>
       <c r="H18">
-        <v>1.29495</v>
+        <v>1.665987</v>
       </c>
       <c r="I18">
-        <v>0.307425575804222</v>
+        <v>0.3312865392416541</v>
       </c>
       <c r="J18">
-        <v>0.3074255758042219</v>
+        <v>0.3312865392416541</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.576131</v>
       </c>
       <c r="O18">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P18">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q18">
-        <v>3.967745648716667</v>
+        <v>5.104608417366333</v>
       </c>
       <c r="R18">
-        <v>35.70971083845</v>
+        <v>45.941475756297</v>
       </c>
       <c r="S18">
-        <v>0.01124377884416486</v>
+        <v>0.01359375533676333</v>
       </c>
       <c r="T18">
-        <v>0.01124377884416486</v>
+        <v>0.01359375533676333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.43165</v>
+        <v>0.555329</v>
       </c>
       <c r="H19">
-        <v>1.29495</v>
+        <v>1.665987</v>
       </c>
       <c r="I19">
-        <v>0.307425575804222</v>
+        <v>0.3312865392416541</v>
       </c>
       <c r="J19">
-        <v>0.3074255758042219</v>
+        <v>0.3312865392416541</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N19">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O19">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P19">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q19">
-        <v>49.3622802002</v>
+        <v>58.33304374663499</v>
       </c>
       <c r="R19">
-        <v>444.2605218018</v>
+        <v>524.997393719715</v>
       </c>
       <c r="S19">
-        <v>0.1398825960515545</v>
+        <v>0.155342988120838</v>
       </c>
       <c r="T19">
-        <v>0.1398825960515545</v>
+        <v>0.155342988120838</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.43165</v>
+        <v>0.555329</v>
       </c>
       <c r="H20">
-        <v>1.29495</v>
+        <v>1.665987</v>
       </c>
       <c r="I20">
-        <v>0.307425575804222</v>
+        <v>0.3312865392416541</v>
       </c>
       <c r="J20">
-        <v>0.3074255758042219</v>
+        <v>0.3312865392416541</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N20">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O20">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P20">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q20">
-        <v>0.9589963733499999</v>
+        <v>1.573871987234667</v>
       </c>
       <c r="R20">
-        <v>8.630967360149999</v>
+        <v>14.164847885112</v>
       </c>
       <c r="S20">
-        <v>0.002717599384877692</v>
+        <v>0.004191277562656214</v>
       </c>
       <c r="T20">
-        <v>0.002717599384877692</v>
+        <v>0.004191277562656213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.43165</v>
+        <v>0.555329</v>
       </c>
       <c r="H21">
-        <v>1.29495</v>
+        <v>1.665987</v>
       </c>
       <c r="I21">
-        <v>0.307425575804222</v>
+        <v>0.3312865392416541</v>
       </c>
       <c r="J21">
-        <v>0.3074255758042219</v>
+        <v>0.3312865392416541</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N21">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O21">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P21">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q21">
-        <v>44.8159006762</v>
+        <v>48.600311040921</v>
       </c>
       <c r="R21">
-        <v>403.3431060858</v>
+        <v>437.402799368289</v>
       </c>
       <c r="S21">
-        <v>0.1269990872696775</v>
+        <v>0.1294243717761485</v>
       </c>
       <c r="T21">
-        <v>0.1269990872696775</v>
+        <v>0.1294243717761485</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2178993333333333</v>
+        <v>0.298874</v>
       </c>
       <c r="H22">
-        <v>0.653698</v>
+        <v>0.896622</v>
       </c>
       <c r="I22">
-        <v>0.1551901494668275</v>
+        <v>0.1782959887369652</v>
       </c>
       <c r="J22">
-        <v>0.1551901494668275</v>
+        <v>0.1782959887369652</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>21.731807</v>
+        <v>19.42991633333333</v>
       </c>
       <c r="N22">
-        <v>65.195421</v>
+        <v>58.289749</v>
       </c>
       <c r="O22">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925175</v>
       </c>
       <c r="P22">
-        <v>0.08646812869881711</v>
+        <v>0.08673502554925173</v>
       </c>
       <c r="Q22">
-        <v>4.735346257428667</v>
+        <v>5.807096814208667</v>
       </c>
       <c r="R22">
-        <v>42.618116316858</v>
+        <v>52.263871327878</v>
       </c>
       <c r="S22">
-        <v>0.0134190018168863</v>
+        <v>0.01546450713842978</v>
       </c>
       <c r="T22">
-        <v>0.0134190018168863</v>
+        <v>0.01546450713842978</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2178993333333333</v>
+        <v>0.298874</v>
       </c>
       <c r="H23">
-        <v>0.653698</v>
+        <v>0.896622</v>
       </c>
       <c r="I23">
-        <v>0.1551901494668275</v>
+        <v>0.1782959887369652</v>
       </c>
       <c r="J23">
-        <v>0.1551901494668275</v>
+        <v>0.1782959887369652</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.576131</v>
       </c>
       <c r="O23">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="P23">
-        <v>0.03657398645103373</v>
+        <v>0.04103322570207864</v>
       </c>
       <c r="Q23">
-        <v>2.002940186937555</v>
+        <v>2.747262858831334</v>
       </c>
       <c r="R23">
-        <v>18.026461682438</v>
+        <v>24.725365729482</v>
       </c>
       <c r="S23">
-        <v>0.005675922423933649</v>
+        <v>0.007316059547619165</v>
       </c>
       <c r="T23">
-        <v>0.005675922423933649</v>
+        <v>0.007316059547619164</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2178993333333333</v>
+        <v>0.298874</v>
       </c>
       <c r="H24">
-        <v>0.653698</v>
+        <v>0.896622</v>
       </c>
       <c r="I24">
-        <v>0.1551901494668275</v>
+        <v>0.1782959887369652</v>
       </c>
       <c r="J24">
-        <v>0.1551901494668275</v>
+        <v>0.1782959887369652</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>114.357188</v>
+        <v>105.042315</v>
       </c>
       <c r="N24">
-        <v>343.071564</v>
+        <v>315.126945</v>
       </c>
       <c r="O24">
-        <v>0.4550128781108181</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="P24">
-        <v>0.455012878110818</v>
+        <v>0.4689082402093144</v>
       </c>
       <c r="Q24">
-        <v>24.91835502707466</v>
+        <v>31.39441685331</v>
       </c>
       <c r="R24">
-        <v>224.265195243672</v>
+        <v>282.54975167979</v>
       </c>
       <c r="S24">
-        <v>0.07061351656334922</v>
+        <v>0.08360445831503009</v>
       </c>
       <c r="T24">
-        <v>0.07061351656334922</v>
+        <v>0.08360445831503009</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2178993333333333</v>
+        <v>0.298874</v>
       </c>
       <c r="H25">
-        <v>0.653698</v>
+        <v>0.896622</v>
       </c>
       <c r="I25">
-        <v>0.1551901494668275</v>
+        <v>0.1782959887369652</v>
       </c>
       <c r="J25">
-        <v>0.1551901494668275</v>
+        <v>0.1782959887369652</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.221699</v>
+        <v>2.834125333333334</v>
       </c>
       <c r="N25">
-        <v>6.665096999999999</v>
+        <v>8.502376000000002</v>
       </c>
       <c r="O25">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="P25">
-        <v>0.00883986108757699</v>
+        <v>0.01265151784388958</v>
       </c>
       <c r="Q25">
-        <v>0.4841067309673333</v>
+        <v>0.8470463748746669</v>
       </c>
       <c r="R25">
-        <v>4.356960578706</v>
+        <v>7.623417373872002</v>
       </c>
       <c r="S25">
-        <v>0.001371859363447065</v>
+        <v>0.002255714882999652</v>
       </c>
       <c r="T25">
-        <v>0.001371859363447065</v>
+        <v>0.002255714882999651</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2178993333333333</v>
+        <v>0.298874</v>
       </c>
       <c r="H26">
-        <v>0.653698</v>
+        <v>0.896622</v>
       </c>
       <c r="I26">
-        <v>0.1551901494668275</v>
+        <v>0.1782959887369652</v>
       </c>
       <c r="J26">
-        <v>0.1551901494668275</v>
+        <v>0.1782959887369652</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>103.824628</v>
+        <v>87.516249</v>
       </c>
       <c r="N26">
-        <v>311.473884</v>
+        <v>262.548747</v>
       </c>
       <c r="O26">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="P26">
-        <v>0.4131051456517542</v>
+        <v>0.3906719906954657</v>
       </c>
       <c r="Q26">
-        <v>22.62331722478133</v>
+        <v>26.156331403626</v>
       </c>
       <c r="R26">
-        <v>203.609855023032</v>
+        <v>235.406982632634</v>
       </c>
       <c r="S26">
-        <v>0.06410984929921126</v>
+        <v>0.06965524885288653</v>
       </c>
       <c r="T26">
-        <v>0.06410984929921126</v>
+        <v>0.06965524885288651</v>
       </c>
     </row>
   </sheetData>
